--- a/Base de données/PAYS.xlsx
+++ b/Base de données/PAYS.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>PAYS</t>
-  </si>
-  <si>
-    <t>occurrences_PAYS</t>
   </si>
 </sst>
 </file>
@@ -360,20 +357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/PAYS.xlsx
+++ b/Base de données/PAYS.xlsx
@@ -16,9 +16,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>PAYS</t>
+  </si>
+  <si>
+    <t>UNITED STATES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMANY </t>
+  </si>
+  <si>
+    <t>ENGLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCE </t>
+  </si>
+  <si>
+    <t>NEW ZEALAND</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED KINGDOM </t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITZERLAND </t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>GERMANY, WEST</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED STATES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETHERLANDS </t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMANY, EAST </t>
+  </si>
+  <si>
+    <t>SCOTLAND</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>RUSSIA (FEDERATION)</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANADA </t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELGIUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRALIA </t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORWAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITALY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRAEL </t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRELAND </t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENMARK </t>
+  </si>
+  <si>
+    <t>CZECHOSLOVAKIA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>YUGOSLAVIA</t>
+  </si>
+  <si>
+    <t>UKRAINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEDEN </t>
+  </si>
+  <si>
+    <t>SOUTH AFRICA</t>
+  </si>
+  <si>
+    <t>SLOVAKIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMANIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLAND </t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUNGARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONG KONG </t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREECE </t>
+  </si>
+  <si>
+    <t>GERMANY, EAST</t>
+  </si>
+  <si>
+    <t>GEORGIA (REPUBLIC)</t>
+  </si>
+  <si>
+    <t>FINLAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTONIA </t>
+  </si>
+  <si>
+    <t>EGYPT</t>
+  </si>
+  <si>
+    <t>BOSNIA AND HERCEGOVINA</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
   </si>
 </sst>
 </file>
@@ -357,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,6 +575,411 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/PAYS.xlsx
+++ b/Base de données/PAYS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>PAYS</t>
   </si>
@@ -24,15 +24,9 @@
     <t>UNITED STATES</t>
   </si>
   <si>
-    <t xml:space="preserve">GERMANY </t>
-  </si>
-  <si>
     <t>ENGLAND</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCE </t>
-  </si>
-  <si>
     <t>NEW ZEALAND</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>SWITZERLAND</t>
   </si>
   <si>
-    <t xml:space="preserve">UNITED KINGDOM </t>
-  </si>
-  <si>
     <t>ITALY</t>
   </si>
   <si>
@@ -63,12 +54,6 @@
     <t>SPAIN</t>
   </si>
   <si>
-    <t xml:space="preserve">AUSTRIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITZERLAND </t>
-  </si>
-  <si>
     <t>NETHERLANDS</t>
   </si>
   <si>
@@ -84,21 +69,9 @@
     <t>CROATIA</t>
   </si>
   <si>
-    <t xml:space="preserve">UNITED STATES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPAIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETHERLANDS </t>
-  </si>
-  <si>
     <t>JAPAN</t>
   </si>
   <si>
-    <t xml:space="preserve">GERMANY, EAST </t>
-  </si>
-  <si>
     <t>SCOTLAND</t>
   </si>
   <si>
@@ -114,48 +87,21 @@
     <t>NORWAY</t>
   </si>
   <si>
-    <t xml:space="preserve">CANADA </t>
-  </si>
-  <si>
     <t>USSR</t>
   </si>
   <si>
-    <t xml:space="preserve">BELGIUM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUSTRALIA </t>
-  </si>
-  <si>
     <t>SINGAPORE</t>
   </si>
   <si>
-    <t xml:space="preserve">NORWAY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAPAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITALY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISRAEL </t>
-  </si>
-  <si>
     <t>IRELAND</t>
   </si>
   <si>
-    <t xml:space="preserve">IRELAND </t>
-  </si>
-  <si>
     <t>IRAN</t>
   </si>
   <si>
     <t>HUNGARY</t>
   </si>
   <si>
-    <t xml:space="preserve">DENMARK </t>
-  </si>
-  <si>
     <t>CZECHOSLOVAKIA</t>
   </si>
   <si>
@@ -171,42 +117,21 @@
     <t>UKRAINE</t>
   </si>
   <si>
-    <t xml:space="preserve">SWEDEN </t>
-  </si>
-  <si>
     <t>SOUTH AFRICA</t>
   </si>
   <si>
     <t>SLOVAKIA</t>
   </si>
   <si>
-    <t xml:space="preserve">ROMANIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POLAND </t>
-  </si>
-  <si>
     <t>NIGERIA</t>
   </si>
   <si>
     <t>ISRAEL</t>
   </si>
   <si>
-    <t xml:space="preserve">HUNGARY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HONG KONG </t>
-  </si>
-  <si>
     <t>GREECE</t>
   </si>
   <si>
-    <t xml:space="preserve">GREECE </t>
-  </si>
-  <si>
     <t>GERMANY, EAST</t>
   </si>
   <si>
@@ -216,9 +141,6 @@
     <t>FINLAND</t>
   </si>
   <si>
-    <t xml:space="preserve">ESTONIA </t>
-  </si>
-  <si>
     <t>EGYPT</t>
   </si>
   <si>
@@ -226,6 +148,24 @@
   </si>
   <si>
     <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>ROMANIA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
+    <t>ESTONIA</t>
   </si>
 </sst>
 </file>
@@ -564,13 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A82"/>
+      <selection activeCell="A2" sqref="A2:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -584,22 +527,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -609,7 +552,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -624,37 +567,37 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -674,127 +617,127 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -809,177 +752,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/PAYS.xlsx
+++ b/Base de données/PAYS.xlsx
@@ -16,156 +16,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>PAYS</t>
   </si>
   <si>
-    <t>UNITED STATES</t>
-  </si>
-  <si>
-    <t>ENGLAND</t>
-  </si>
-  <si>
-    <t>NEW ZEALAND</t>
-  </si>
-  <si>
-    <t>DENMARK</t>
-  </si>
-  <si>
-    <t>CANADA</t>
-  </si>
-  <si>
-    <t>GERMANY</t>
-  </si>
-  <si>
-    <t>AUSTRALIA</t>
-  </si>
-  <si>
-    <t>SWITZERLAND</t>
-  </si>
-  <si>
-    <t>ITALY</t>
-  </si>
-  <si>
-    <t>TURKEY</t>
-  </si>
-  <si>
-    <t>SPAIN</t>
-  </si>
-  <si>
-    <t>NETHERLANDS</t>
-  </si>
-  <si>
-    <t>GERMANY, WEST</t>
-  </si>
-  <si>
-    <t>FRANCE</t>
-  </si>
-  <si>
-    <t>POLAND</t>
-  </si>
-  <si>
-    <t>CROATIA</t>
-  </si>
-  <si>
-    <t>JAPAN</t>
-  </si>
-  <si>
-    <t>SCOTLAND</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>SWEDEN</t>
-  </si>
-  <si>
-    <t>RUSSIA (FEDERATION)</t>
-  </si>
-  <si>
-    <t>NORWAY</t>
-  </si>
-  <si>
-    <t>USSR</t>
-  </si>
-  <si>
-    <t>SINGAPORE</t>
-  </si>
-  <si>
-    <t>IRELAND</t>
-  </si>
-  <si>
-    <t>IRAN</t>
-  </si>
-  <si>
-    <t>HUNGARY</t>
-  </si>
-  <si>
-    <t>CZECHOSLOVAKIA</t>
-  </si>
-  <si>
-    <t>COLOMBIA</t>
-  </si>
-  <si>
-    <t>CHINA</t>
-  </si>
-  <si>
-    <t>YUGOSLAVIA</t>
-  </si>
-  <si>
-    <t>UKRAINE</t>
-  </si>
-  <si>
-    <t>SOUTH AFRICA</t>
-  </si>
-  <si>
-    <t>SLOVAKIA</t>
-  </si>
-  <si>
-    <t>NIGERIA</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>GREECE</t>
-  </si>
-  <si>
-    <t>GERMANY, EAST</t>
-  </si>
-  <si>
-    <t>GEORGIA (REPUBLIC)</t>
-  </si>
-  <si>
-    <t>FINLAND</t>
-  </si>
-  <si>
-    <t>EGYPT</t>
-  </si>
-  <si>
-    <t>BOSNIA AND HERCEGOVINA</t>
-  </si>
-  <si>
-    <t>AUSTRIA</t>
-  </si>
-  <si>
-    <t>UNITED KINGDOM</t>
-  </si>
-  <si>
-    <t>BELGIUM</t>
-  </si>
-  <si>
-    <t>ROMANIA</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>HONG KONG</t>
-  </si>
-  <si>
-    <t>ESTONIA</t>
+    <t xml:space="preserve">USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERMANY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW-ZEALAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITZERLAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANADA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENMARK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRALIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITALY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETHERLANDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURKEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUSTRIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAPAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROATIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUSSIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEDEN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORWAY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELGIUM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRELAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISRAEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUNGARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGAPORE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREECE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZECHOSLOVAKIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLOMBIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUGOSLAVIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKRAINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH-AFRICA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOVAKIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMANIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGERIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HONG-KONG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEORGIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINLAND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTONIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGYPT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOSNIA </t>
   </si>
 </sst>
 </file>
@@ -504,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A50"/>
+      <selection activeCell="A46" sqref="A46:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,242 +512,217 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
